--- a/Qs ranking data.xlsx
+++ b/Qs ranking data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ML_projects\MSapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Grad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -441,9 +441,6 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>HOKKAIDO UNIVERSITY</t>
-  </si>
-  <si>
     <t>UNIVERSIDAD NACIONAL AUTÓNOMA DE MÉXICO (UNAM)</t>
   </si>
   <si>
@@ -474,9 +471,6 @@
     <t>UNIVERSITY OF SOUTHERN CALIFORNIA</t>
   </si>
   <si>
-    <t>CHALMERS UNIVERSITY OF TECHNOLOGY</t>
-  </si>
-  <si>
     <t>UNIVERSITY OF CALIFORNIA, SANTA BARBARA (UCSB)</t>
   </si>
   <si>
@@ -510,9 +504,6 @@
     <t>UNIVERSITY OF PITTSBURGH</t>
   </si>
   <si>
-    <t>TECHNISCHE UNIVERSITÄT BERLIN</t>
-  </si>
-  <si>
     <t>HEBREW UNIVERSITY OF JERUSALEM</t>
   </si>
   <si>
@@ -552,9 +543,6 @@
     <t>HANYANG UNIVERSITY</t>
   </si>
   <si>
-    <t>UNIVERSITAT DE BARCELONA (UB)</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -600,9 +588,6 @@
     <t>Italy</t>
   </si>
   <si>
-    <t>UNIVERSITÄT FREIBURG</t>
-  </si>
-  <si>
     <t>INDIAN INSTITUTE OF TECHNOLOGY DELHI (IITD)</t>
   </si>
   <si>
@@ -618,9 +603,6 @@
     <t>UNIVERSITY OF LIVERPOOL</t>
   </si>
   <si>
-    <t>UNIVERSITY OF VIRGINIA</t>
-  </si>
-  <si>
     <t>UNIVERSITY OF TECHNOLOGY SYDNEY (UTS)</t>
   </si>
   <si>
@@ -723,9 +705,6 @@
     <t>UNIVERSITY OF ANTWERP</t>
   </si>
   <si>
-    <t>WESTERN UNIVERSITY</t>
-  </si>
-  <si>
     <t>VANDERBILT UNIVERSITY</t>
   </si>
   <si>
@@ -759,9 +738,6 @@
     <t>NATIONAL CHENG KUNG UNIVERSITY</t>
   </si>
   <si>
-    <t>UNIVERSITÄT HAMBURG</t>
-  </si>
-  <si>
     <t>QUEEN'S UNIVERSITY</t>
   </si>
   <si>
@@ -927,9 +903,6 @@
     <t xml:space="preserve">UNIVERSITAT POLITÈCNICA DE CATALUNYA </t>
   </si>
   <si>
-    <t>UNIVERSITY OF TURKU</t>
-  </si>
-  <si>
     <t>UNIVERSITY OF INDONESIA</t>
   </si>
   <si>
@@ -1014,9 +987,6 @@
     <t>UNIVERSITÉ DE STRASBOURG</t>
   </si>
   <si>
-    <t>INDIANA UNIVERSITY BLOOMINGTON</t>
-  </si>
-  <si>
     <t>UNIVERSITÉ PARIS DIDEROT - PARIS 7</t>
   </si>
   <si>
@@ -1230,9 +1200,6 @@
     <t>UNIVERSITY OF TROMSO</t>
   </si>
   <si>
-    <t>VIRGINIA POLYTECHNIC INSTITUTE (VIRGINIA TECH)</t>
-  </si>
-  <si>
     <t>UNIVERSITY OF ST GALLEN (HSG)</t>
   </si>
   <si>
@@ -3157,6 +3124,39 @@
   </si>
   <si>
     <t>UNIVERSITY COLORADO BOULDER</t>
+  </si>
+  <si>
+    <t>UNIVERSITY VIRGINIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TURKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDIANA </t>
+  </si>
+  <si>
+    <t>WESTERN</t>
+  </si>
+  <si>
+    <t>TECHNIcal BERLIN</t>
+  </si>
+  <si>
+    <t>HAMBURG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHALMERS </t>
+  </si>
+  <si>
+    <t>oXFORD BROOKES UNIVERSITY</t>
+  </si>
+  <si>
+    <t>Essec</t>
+  </si>
+  <si>
+    <t>FREIBURG</t>
+  </si>
+  <si>
+    <t>BARCELONA</t>
   </si>
 </sst>
 </file>
@@ -3965,15 +3965,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C961"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4262,7 +4262,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="C28" t="s">
         <v>32</v>
@@ -4471,7 +4471,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -4680,7 +4680,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="C66" t="s">
         <v>74</v>
@@ -4735,7 +4735,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="C71" t="s">
         <v>3</v>
@@ -4757,7 +4757,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -5274,7 +5274,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C120" t="s">
         <v>3</v>
@@ -5318,10 +5318,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>1043</v>
       </c>
       <c r="C124" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -5329,10 +5329,10 @@
         <v>122</v>
       </c>
       <c r="B125" t="s">
+        <v>140</v>
+      </c>
+      <c r="C125" t="s">
         <v>141</v>
-      </c>
-      <c r="C125" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -5340,7 +5340,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C126" t="s">
         <v>64</v>
@@ -5351,7 +5351,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C127" t="s">
         <v>74</v>
@@ -5362,7 +5362,7 @@
         <v>125</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C128" t="s">
         <v>80</v>
@@ -5373,7 +5373,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
         <v>8</v>
@@ -5384,7 +5384,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C130" t="s">
         <v>36</v>
@@ -5395,7 +5395,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="C131" t="s">
         <v>3</v>
@@ -5406,7 +5406,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C132" t="s">
         <v>39</v>
@@ -5417,7 +5417,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C133" t="s">
         <v>53</v>
@@ -5428,7 +5428,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C134" t="s">
         <v>3</v>
@@ -5439,7 +5439,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>151</v>
+        <v>1041</v>
       </c>
       <c r="C135" t="s">
         <v>92</v>
@@ -5450,7 +5450,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C136" t="s">
         <v>3</v>
@@ -5461,7 +5461,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C137" t="s">
         <v>8</v>
@@ -5472,7 +5472,7 @@
         <v>135</v>
       </c>
       <c r="B138" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C138" t="s">
         <v>8</v>
@@ -5483,7 +5483,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C139" t="s">
         <v>119</v>
@@ -5494,7 +5494,7 @@
         <v>137</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C140" t="s">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -5516,7 +5516,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C142" t="s">
         <v>39</v>
@@ -5527,7 +5527,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="C143" t="s">
         <v>74</v>
@@ -5538,10 +5538,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -5549,7 +5549,7 @@
         <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C145" t="s">
         <v>3</v>
@@ -5560,7 +5560,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>1039</v>
       </c>
       <c r="C146" t="s">
         <v>74</v>
@@ -5571,10 +5571,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C147" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -5582,7 +5582,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C148" t="s">
         <v>13</v>
@@ -5593,7 +5593,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C149" t="s">
         <v>3</v>
@@ -5604,7 +5604,7 @@
         <v>147</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C150" t="s">
         <v>64</v>
@@ -5615,7 +5615,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C151" t="s">
         <v>3</v>
@@ -5626,7 +5626,7 @@
         <v>149</v>
       </c>
       <c r="B152" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
@@ -5637,7 +5637,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C153" t="s">
         <v>96</v>
@@ -5648,7 +5648,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C154" t="s">
         <v>39</v>
@@ -5659,7 +5659,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C155" t="s">
         <v>80</v>
@@ -5670,10 +5670,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C156" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -5681,7 +5681,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C157" t="s">
         <v>46</v>
@@ -5692,10 +5692,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>177</v>
+        <v>1045</v>
       </c>
       <c r="C158" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -5703,7 +5703,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C159" t="s">
         <v>53</v>
@@ -5714,7 +5714,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
         <v>8</v>
@@ -5725,7 +5725,7 @@
         <v>158</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C161" t="s">
         <v>8</v>
@@ -5736,7 +5736,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C162" t="s">
         <v>8</v>
@@ -5747,7 +5747,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C163" t="s">
         <v>88</v>
@@ -5758,7 +5758,7 @@
         <v>161</v>
       </c>
       <c r="B164" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C164" t="s">
         <v>8</v>
@@ -5769,7 +5769,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="C165" t="s">
         <v>3</v>
@@ -5780,7 +5780,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
         <v>74</v>
@@ -5791,10 +5791,10 @@
         <v>164</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C167" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -5802,7 +5802,7 @@
         <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
         <v>3</v>
@@ -5813,7 +5813,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C169" t="s">
         <v>13</v>
@@ -5824,7 +5824,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C170" t="s">
         <v>103</v>
@@ -5835,7 +5835,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C171" t="s">
         <v>3</v>
@@ -5846,10 +5846,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C172" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -5857,7 +5857,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>193</v>
+        <v>1044</v>
       </c>
       <c r="C173" t="s">
         <v>74</v>
@@ -5868,10 +5868,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C174" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -5879,10 +5879,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C175" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -5890,7 +5890,7 @@
         <v>173</v>
       </c>
       <c r="B176" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C176" t="s">
         <v>8</v>
@@ -5901,7 +5901,7 @@
         <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>199</v>
+        <v>1035</v>
       </c>
       <c r="C177" t="s">
         <v>3</v>
@@ -5912,7 +5912,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C178" t="s">
         <v>25</v>
@@ -5923,7 +5923,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
         <v>53</v>
@@ -5934,7 +5934,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C180" t="s">
         <v>3</v>
@@ -5945,10 +5945,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C181" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -5956,7 +5956,7 @@
         <v>179</v>
       </c>
       <c r="B182" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="C182" t="s">
         <v>64</v>
@@ -5967,7 +5967,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C183" t="s">
         <v>74</v>
@@ -5978,10 +5978,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C184" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -5989,7 +5989,7 @@
         <v>182</v>
       </c>
       <c r="B185" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C185" t="s">
         <v>139</v>
@@ -6000,7 +6000,7 @@
         <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="C186" t="s">
         <v>3</v>
@@ -6011,7 +6011,7 @@
         <v>182</v>
       </c>
       <c r="B187" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C187" t="s">
         <v>80</v>
@@ -6022,7 +6022,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C188" t="s">
         <v>3</v>
@@ -6033,10 +6033,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C189" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -6044,10 +6044,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -6055,7 +6055,7 @@
         <v>188</v>
       </c>
       <c r="B191" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C191" t="s">
         <v>8</v>
@@ -6066,10 +6066,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C192" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -6077,10 +6077,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -6088,7 +6088,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C194" t="s">
         <v>36</v>
@@ -6099,10 +6099,10 @@
         <v>192</v>
       </c>
       <c r="B195" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C195" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -6110,10 +6110,10 @@
         <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C196" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -6121,7 +6121,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C197" t="s">
         <v>92</v>
@@ -6132,7 +6132,7 @@
         <v>195</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C198" t="s">
         <v>74</v>
@@ -6143,7 +6143,7 @@
         <v>195</v>
       </c>
       <c r="B199" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C199" t="s">
         <v>3</v>
@@ -6154,10 +6154,10 @@
         <v>195</v>
       </c>
       <c r="B200" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C200" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -6165,10 +6165,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C201" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -6176,7 +6176,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C202" t="s">
         <v>64</v>
@@ -6187,10 +6187,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C203" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -6198,7 +6198,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C204" t="s">
         <v>8</v>
@@ -6209,7 +6209,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C205" t="s">
         <v>36</v>
@@ -6220,7 +6220,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C206" t="s">
         <v>64</v>
@@ -6231,10 +6231,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C207" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -6242,7 +6242,7 @@
         <v>205</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C208" t="s">
         <v>80</v>
@@ -6253,7 +6253,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C209" t="s">
         <v>88</v>
@@ -6264,7 +6264,7 @@
         <v>207</v>
       </c>
       <c r="B210" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C210" t="s">
         <v>3</v>
@@ -6275,7 +6275,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C211" t="s">
         <v>3</v>
@@ -6286,7 +6286,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C212" t="s">
         <v>80</v>
@@ -6297,7 +6297,7 @@
         <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>1038</v>
       </c>
       <c r="C213" t="s">
         <v>39</v>
@@ -6308,7 +6308,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C214" t="s">
         <v>3</v>
@@ -6319,7 +6319,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C215" t="s">
         <v>3</v>
@@ -6330,7 +6330,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="C216" t="s">
         <v>96</v>
@@ -6341,10 +6341,10 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C217" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -6352,7 +6352,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C218" t="s">
         <v>3</v>
@@ -6363,7 +6363,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C219" t="s">
         <v>39</v>
@@ -6374,7 +6374,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C220" t="s">
         <v>64</v>
@@ -6385,7 +6385,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C221" t="s">
         <v>96</v>
@@ -6396,7 +6396,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C222" t="s">
         <v>53</v>
@@ -6407,10 +6407,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C223" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -6418,7 +6418,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C224" t="s">
         <v>88</v>
@@ -6429,7 +6429,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>1040</v>
       </c>
       <c r="C225" t="s">
         <v>74</v>
@@ -6440,7 +6440,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C226" t="s">
         <v>39</v>
@@ -6451,10 +6451,10 @@
         <v>224</v>
       </c>
       <c r="B227" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C227" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -6462,7 +6462,7 @@
         <v>224</v>
       </c>
       <c r="B228" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C228" t="s">
         <v>25</v>
@@ -6473,7 +6473,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C229" t="s">
         <v>3</v>
@@ -6484,7 +6484,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C230" t="s">
         <v>8</v>
@@ -6495,7 +6495,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C231" t="s">
         <v>133</v>
@@ -6506,7 +6506,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C232" t="s">
         <v>133</v>
@@ -6517,7 +6517,7 @@
         <v>230</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C233" t="s">
         <v>3</v>
@@ -6528,7 +6528,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C234" t="s">
         <v>25</v>
@@ -6539,10 +6539,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C235" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -6550,7 +6550,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C236" t="s">
         <v>8</v>
@@ -6561,10 +6561,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C237" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -6572,10 +6572,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C238" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -6583,7 +6583,7 @@
         <v>236</v>
       </c>
       <c r="B239" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C239" t="s">
         <v>53</v>
@@ -6594,7 +6594,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -6605,7 +6605,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C241" t="s">
         <v>74</v>
@@ -6616,7 +6616,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C242" t="s">
         <v>25</v>
@@ -6627,7 +6627,7 @@
         <v>240</v>
       </c>
       <c r="B243" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C243" t="s">
         <v>111</v>
@@ -6638,7 +6638,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C244" t="s">
         <v>53</v>
@@ -6649,7 +6649,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C245" t="s">
         <v>103</v>
@@ -6660,7 +6660,7 @@
         <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C246" t="s">
         <v>3</v>
@@ -6671,10 +6671,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C247" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -6682,7 +6682,7 @@
         <v>245</v>
       </c>
       <c r="B248" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C248" t="s">
         <v>39</v>
@@ -6693,7 +6693,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C249" t="s">
         <v>25</v>
@@ -6704,7 +6704,7 @@
         <v>247</v>
       </c>
       <c r="B250" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C250" t="s">
         <v>25</v>
@@ -6715,7 +6715,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C251" t="s">
         <v>3</v>
@@ -6726,7 +6726,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C252" t="s">
         <v>111</v>
@@ -6737,7 +6737,7 @@
         <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C253" t="s">
         <v>36</v>
@@ -6748,7 +6748,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C254" t="s">
         <v>3</v>
@@ -6759,7 +6759,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C255" t="s">
         <v>133</v>
@@ -6770,10 +6770,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C256" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -6781,7 +6781,7 @@
         <v>254</v>
       </c>
       <c r="B257" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C257" t="s">
         <v>74</v>
@@ -6792,7 +6792,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C258" t="s">
         <v>31</v>
@@ -6803,7 +6803,7 @@
         <v>256</v>
       </c>
       <c r="B259" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C259" t="s">
         <v>46</v>
@@ -6814,10 +6814,10 @@
         <v>256</v>
       </c>
       <c r="B260" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C260" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -6825,10 +6825,10 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="C261" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -6836,7 +6836,7 @@
         <v>259</v>
       </c>
       <c r="B262" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C262" t="s">
         <v>8</v>
@@ -6847,7 +6847,7 @@
         <v>259</v>
       </c>
       <c r="B263" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C263" t="s">
         <v>74</v>
@@ -6858,7 +6858,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C264" t="s">
         <v>25</v>
@@ -6869,7 +6869,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C265" t="s">
         <v>3</v>
@@ -6880,10 +6880,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C266" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -6891,7 +6891,7 @@
         <v>264</v>
       </c>
       <c r="B267" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C267" t="s">
         <v>88</v>
@@ -6902,7 +6902,7 @@
         <v>264</v>
       </c>
       <c r="B268" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C268" t="s">
         <v>133</v>
@@ -6913,10 +6913,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C269" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -6924,7 +6924,7 @@
         <v>267</v>
       </c>
       <c r="B270" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C270" t="s">
         <v>8</v>
@@ -6935,7 +6935,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C271" t="s">
         <v>53</v>
@@ -6946,7 +6946,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C272" t="s">
         <v>53</v>
@@ -6957,10 +6957,10 @@
         <v>270</v>
       </c>
       <c r="B273" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C273" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -6968,7 +6968,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C274" t="s">
         <v>74</v>
@@ -6979,7 +6979,7 @@
         <v>272</v>
       </c>
       <c r="B275" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C275" t="s">
         <v>8</v>
@@ -6990,7 +6990,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C276" t="s">
         <v>8</v>
@@ -7001,10 +7001,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C277" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -7012,7 +7012,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>302</v>
+        <v>1036</v>
       </c>
       <c r="C278" t="s">
         <v>119</v>
@@ -7023,10 +7023,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C279" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -7034,7 +7034,7 @@
         <v>277</v>
       </c>
       <c r="B280" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C280" t="s">
         <v>8</v>
@@ -7045,7 +7045,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C281" t="s">
         <v>39</v>
@@ -7056,7 +7056,7 @@
         <v>279</v>
       </c>
       <c r="B282" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C282" t="s">
         <v>25</v>
@@ -7067,10 +7067,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C283" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -7078,7 +7078,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C284" t="s">
         <v>31</v>
@@ -7089,7 +7089,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="C285" t="s">
         <v>3</v>
@@ -7100,7 +7100,7 @@
         <v>283</v>
       </c>
       <c r="B286" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="C286" t="s">
         <v>103</v>
@@ -7111,7 +7111,7 @@
         <v>283</v>
       </c>
       <c r="B287" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C287" t="s">
         <v>92</v>
@@ -7122,10 +7122,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C288" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -7133,7 +7133,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C289" t="s">
         <v>92</v>
@@ -7144,7 +7144,7 @@
         <v>287</v>
       </c>
       <c r="B290" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C290" t="s">
         <v>74</v>
@@ -7155,7 +7155,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C291" t="s">
         <v>88</v>
@@ -7166,7 +7166,7 @@
         <v>289</v>
       </c>
       <c r="B292" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C292" t="s">
         <v>39</v>
@@ -7177,7 +7177,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C293" t="s">
         <v>111</v>
@@ -7188,7 +7188,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C294" t="s">
         <v>96</v>
@@ -7199,7 +7199,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C295" t="s">
         <v>25</v>
@@ -7210,10 +7210,10 @@
         <v>293</v>
       </c>
       <c r="B296" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C296" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -7221,7 +7221,7 @@
         <v>293</v>
       </c>
       <c r="B297" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C297" t="s">
         <v>53</v>
@@ -7232,7 +7232,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C298" t="s">
         <v>8</v>
@@ -7243,10 +7243,10 @@
         <v>296</v>
       </c>
       <c r="B299" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C299" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
@@ -7254,10 +7254,10 @@
         <v>296</v>
       </c>
       <c r="B300" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C300" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
@@ -7265,7 +7265,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C301" t="s">
         <v>46</v>
@@ -7276,7 +7276,7 @@
         <v>299</v>
       </c>
       <c r="B302" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C302" t="s">
         <v>32</v>
@@ -7287,7 +7287,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="C303" t="s">
         <v>3</v>
@@ -7298,10 +7298,10 @@
         <v>301</v>
       </c>
       <c r="B304" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C304" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
@@ -7309,7 +7309,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C305" t="s">
         <v>53</v>
@@ -7320,7 +7320,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>331</v>
+        <v>1037</v>
       </c>
       <c r="C306" t="s">
         <v>3</v>
@@ -7331,7 +7331,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C307" t="s">
         <v>53</v>
@@ -7342,10 +7342,10 @@
         <v>305</v>
       </c>
       <c r="B308" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="C308" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.3">
@@ -7353,10 +7353,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C309" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.3">
@@ -7364,7 +7364,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C310" t="s">
         <v>8</v>
@@ -7375,10 +7375,10 @@
         <v>308</v>
       </c>
       <c r="B311" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="C311" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -7386,7 +7386,7 @@
         <v>308</v>
       </c>
       <c r="B312" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C312" t="s">
         <v>74</v>
@@ -7397,7 +7397,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C313" t="s">
         <v>139</v>
@@ -7408,7 +7408,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="C314" t="s">
         <v>8</v>
@@ -7419,7 +7419,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="C315" t="s">
         <v>25</v>
@@ -7430,10 +7430,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C316" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
@@ -7441,10 +7441,10 @@
         <v>314</v>
       </c>
       <c r="B317" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="C317" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
@@ -7452,7 +7452,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="C318" t="s">
         <v>96</v>
@@ -7463,7 +7463,7 @@
         <v>316</v>
       </c>
       <c r="B319" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C319" t="s">
         <v>31</v>
@@ -7474,7 +7474,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="C320" t="s">
         <v>3</v>
@@ -7485,7 +7485,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C321" t="s">
         <v>96</v>
@@ -7496,7 +7496,7 @@
         <v>319</v>
       </c>
       <c r="B322" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C322" t="s">
         <v>31</v>
@@ -7507,7 +7507,7 @@
         <v>319</v>
       </c>
       <c r="B323" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C323" t="s">
         <v>80</v>
@@ -7518,7 +7518,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C324" t="s">
         <v>36</v>
@@ -7529,7 +7529,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C325" t="s">
         <v>111</v>
@@ -7540,7 +7540,7 @@
         <v>323</v>
       </c>
       <c r="B326" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C326" t="s">
         <v>3</v>
@@ -7551,7 +7551,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C327" t="s">
         <v>25</v>
@@ -7562,7 +7562,7 @@
         <v>325</v>
       </c>
       <c r="B328" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C328" t="s">
         <v>31</v>
@@ -7573,10 +7573,10 @@
         <v>325</v>
       </c>
       <c r="B329" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C329" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
@@ -7584,7 +7584,7 @@
         <v>325</v>
       </c>
       <c r="B330" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="C330" t="s">
         <v>3</v>
@@ -7595,7 +7595,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C331" t="s">
         <v>88</v>
@@ -7606,7 +7606,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C332" t="s">
         <v>53</v>
@@ -7617,10 +7617,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="C333" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
@@ -7628,7 +7628,7 @@
         <v>331</v>
       </c>
       <c r="B334" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C334" t="s">
         <v>86</v>
@@ -7639,7 +7639,7 @@
         <v>331</v>
       </c>
       <c r="B335" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C335" t="s">
         <v>74</v>
@@ -7650,10 +7650,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C336" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
@@ -7661,10 +7661,10 @@
         <v>334</v>
       </c>
       <c r="B337" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C337" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
@@ -7672,10 +7672,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C338" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
@@ -7683,7 +7683,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C339" t="s">
         <v>86</v>
@@ -7694,7 +7694,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C340" t="s">
         <v>92</v>
@@ -7705,7 +7705,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="C341" t="s">
         <v>3</v>
@@ -7716,7 +7716,7 @@
         <v>339</v>
       </c>
       <c r="B342" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C342" t="s">
         <v>46</v>
@@ -7727,7 +7727,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C343" t="s">
         <v>74</v>
@@ -7738,7 +7738,7 @@
         <v>341</v>
       </c>
       <c r="B344" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="C344" t="s">
         <v>3</v>
@@ -7749,7 +7749,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C345" t="s">
         <v>8</v>
@@ -7760,7 +7760,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C346" t="s">
         <v>31</v>
@@ -7771,7 +7771,7 @@
         <v>344</v>
       </c>
       <c r="B347" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C347" t="s">
         <v>31</v>
@@ -7782,7 +7782,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C348" t="s">
         <v>8</v>
@@ -7793,7 +7793,7 @@
         <v>346</v>
       </c>
       <c r="B349" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C349" t="s">
         <v>3</v>
@@ -7804,7 +7804,7 @@
         <v>346</v>
       </c>
       <c r="B350" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C350" t="s">
         <v>39</v>
@@ -7815,10 +7815,10 @@
         <v>349</v>
       </c>
       <c r="B351" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C351" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
@@ -7826,10 +7826,10 @@
         <v>349</v>
       </c>
       <c r="B352" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C352" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
@@ -7837,7 +7837,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C353" t="s">
         <v>36</v>
@@ -7848,10 +7848,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C354" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
@@ -7859,7 +7859,7 @@
         <v>352</v>
       </c>
       <c r="B355" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C355" t="s">
         <v>3</v>
@@ -7870,7 +7870,7 @@
         <v>352</v>
       </c>
       <c r="B356" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C356" t="s">
         <v>8</v>
@@ -7881,7 +7881,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C357" t="s">
         <v>111</v>
@@ -7892,7 +7892,7 @@
         <v>355</v>
       </c>
       <c r="B358" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C358" t="s">
         <v>53</v>
@@ -7903,7 +7903,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C359" t="s">
         <v>64</v>
@@ -7914,7 +7914,7 @@
         <v>357</v>
       </c>
       <c r="B360" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C360" t="s">
         <v>74</v>
@@ -7925,7 +7925,7 @@
         <v>357</v>
       </c>
       <c r="B361" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C361" t="s">
         <v>119</v>
@@ -7936,7 +7936,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="C362" t="s">
         <v>25</v>
@@ -7947,7 +7947,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C363" t="s">
         <v>8</v>
@@ -7958,10 +7958,10 @@
         <v>361</v>
       </c>
       <c r="B364" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C364" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
@@ -7969,10 +7969,10 @@
         <v>361</v>
       </c>
       <c r="B365" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C365" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
@@ -7980,7 +7980,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C366" t="s">
         <v>86</v>
@@ -7991,7 +7991,7 @@
         <v>364</v>
       </c>
       <c r="B367" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C367" t="s">
         <v>3</v>
@@ -8002,10 +8002,10 @@
         <v>364</v>
       </c>
       <c r="B368" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C368" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
@@ -8013,7 +8013,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C369" t="s">
         <v>25</v>
@@ -8024,7 +8024,7 @@
         <v>367</v>
       </c>
       <c r="B370" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C370" t="s">
         <v>36</v>
@@ -8035,10 +8035,10 @@
         <v>367</v>
       </c>
       <c r="B371" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C371" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
@@ -8046,10 +8046,10 @@
         <v>367</v>
       </c>
       <c r="B372" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C372" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
@@ -8057,7 +8057,7 @@
         <v>367</v>
       </c>
       <c r="B373" t="s">
-        <v>403</v>
+        <v>1042</v>
       </c>
       <c r="C373" t="s">
         <v>3</v>
@@ -8068,7 +8068,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C374" t="s">
         <v>13</v>
@@ -8079,7 +8079,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C375" t="s">
         <v>8</v>
@@ -8090,7 +8090,7 @@
         <v>373</v>
       </c>
       <c r="B376" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C376" t="s">
         <v>111</v>
@@ -8101,7 +8101,7 @@
         <v>373</v>
       </c>
       <c r="B377" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="C377" t="s">
         <v>111</v>
@@ -8112,10 +8112,10 @@
         <v>373</v>
       </c>
       <c r="B378" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C378" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
@@ -8123,7 +8123,7 @@
         <v>373</v>
       </c>
       <c r="B379" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C379" t="s">
         <v>8</v>
@@ -8134,7 +8134,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C380" t="s">
         <v>39</v>
@@ -8145,7 +8145,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C381" t="s">
         <v>83</v>
@@ -8156,7 +8156,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C382" t="s">
         <v>119</v>
@@ -8167,7 +8167,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C383" t="s">
         <v>53</v>
@@ -8178,7 +8178,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C384" t="s">
         <v>111</v>
@@ -8189,7 +8189,7 @@
         <v>382</v>
       </c>
       <c r="B385" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C385" t="s">
         <v>3</v>
@@ -8200,7 +8200,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C386" t="s">
         <v>83</v>
@@ -8211,7 +8211,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C387" t="s">
         <v>74</v>
@@ -8222,7 +8222,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C388" t="s">
         <v>111</v>
@@ -8233,7 +8233,7 @@
         <v>386</v>
       </c>
       <c r="B389" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="C389" t="s">
         <v>3</v>
@@ -8244,7 +8244,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C390" t="s">
         <v>88</v>
@@ -8255,7 +8255,7 @@
         <v>388</v>
       </c>
       <c r="B391" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="C391" t="s">
         <v>74</v>
@@ -8266,10 +8266,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C392" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
@@ -8277,7 +8277,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C393" t="s">
         <v>103</v>
@@ -8288,7 +8288,7 @@
         <v>391</v>
       </c>
       <c r="B394" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C394" t="s">
         <v>88</v>
@@ -8299,7 +8299,7 @@
         <v>391</v>
       </c>
       <c r="B395" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C395" t="s">
         <v>3</v>
@@ -8310,7 +8310,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C396" t="s">
         <v>3</v>
@@ -8321,10 +8321,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="C397" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
@@ -8332,7 +8332,7 @@
         <v>395</v>
       </c>
       <c r="B398" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C398" t="s">
         <v>3</v>
@@ -8343,7 +8343,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C399" t="s">
         <v>46</v>
@@ -8354,7 +8354,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C400" t="s">
         <v>8</v>
@@ -8365,7 +8365,7 @@
         <v>398</v>
       </c>
       <c r="B401" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C401" t="s">
         <v>74</v>
@@ -8376,7 +8376,7 @@
         <v>398</v>
       </c>
       <c r="B402" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C402" t="s">
         <v>88</v>
@@ -8387,7 +8387,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C403" t="s">
         <v>74</v>
@@ -8398,10 +8398,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C404" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
@@ -8409,7 +8409,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C405" t="s">
         <v>111</v>
@@ -8420,7 +8420,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C406" t="s">
         <v>74</v>
@@ -8431,10 +8431,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C407" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
@@ -8442,10 +8442,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C408" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
@@ -8453,10 +8453,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C409" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
@@ -8464,10 +8464,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C410" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
@@ -8475,10 +8475,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C411" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
@@ -8486,7 +8486,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C412" t="s">
         <v>3</v>
@@ -8497,10 +8497,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C413" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
@@ -8508,10 +8508,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C414" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
@@ -8519,7 +8519,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="C415" t="s">
         <v>3</v>
@@ -8530,10 +8530,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="C416" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
@@ -8541,10 +8541,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C417" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
@@ -8552,10 +8552,10 @@
         <v>416</v>
       </c>
       <c r="B418" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C418" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
@@ -8563,7 +8563,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C419" t="s">
         <v>53</v>
@@ -8574,7 +8574,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C420" t="s">
         <v>119</v>
@@ -8585,10 +8585,10 @@
         <v>419</v>
       </c>
       <c r="B421" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C421" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
@@ -8596,7 +8596,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C422" t="s">
         <v>3</v>
@@ -8607,10 +8607,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C423" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
@@ -8618,7 +8618,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C424" t="s">
         <v>36</v>
@@ -8629,7 +8629,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C425" t="s">
         <v>31</v>
@@ -8640,7 +8640,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C426" t="s">
         <v>25</v>
@@ -8651,7 +8651,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C427" t="s">
         <v>3</v>
@@ -8662,10 +8662,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="C428" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
@@ -8673,7 +8673,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C429" t="s">
         <v>3</v>
@@ -8684,7 +8684,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C430" t="s">
         <v>3</v>
@@ -8695,7 +8695,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C431" t="s">
         <v>3</v>
@@ -8706,7 +8706,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="C432" t="s">
         <v>3</v>
@@ -8717,7 +8717,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C433" t="s">
         <v>25</v>
@@ -8728,7 +8728,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C434" t="s">
         <v>74</v>
@@ -8739,7 +8739,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C435" t="s">
         <v>39</v>
@@ -8750,7 +8750,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C436" t="s">
         <v>3</v>
@@ -8761,10 +8761,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C437" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
@@ -8772,10 +8772,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C438" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
@@ -8783,10 +8783,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C439" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
@@ -8794,10 +8794,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C440" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
@@ -8805,7 +8805,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C441" t="s">
         <v>8</v>
@@ -8816,7 +8816,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C442" t="s">
         <v>86</v>
@@ -8827,7 +8827,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C443" t="s">
         <v>31</v>
@@ -8838,7 +8838,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C444" t="s">
         <v>96</v>
@@ -8849,7 +8849,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C445" t="s">
         <v>8</v>
@@ -8860,7 +8860,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C446" t="s">
         <v>111</v>
@@ -8871,7 +8871,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C447" t="s">
         <v>3</v>
@@ -8882,7 +8882,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C448" t="s">
         <v>15</v>
@@ -8893,7 +8893,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C449" t="s">
         <v>46</v>
@@ -8904,10 +8904,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C450" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
@@ -8915,7 +8915,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C451" t="s">
         <v>53</v>
@@ -8926,7 +8926,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C452" t="s">
         <v>39</v>
@@ -8937,7 +8937,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C453" t="s">
         <v>31</v>
@@ -8948,7 +8948,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C454" t="s">
         <v>53</v>
@@ -8959,10 +8959,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C455" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
@@ -8970,10 +8970,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C456" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
@@ -8981,7 +8981,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C457" t="s">
         <v>3</v>
@@ -8992,10 +8992,10 @@
         <v>456</v>
       </c>
       <c r="B458" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C458" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
@@ -9003,7 +9003,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C459" t="s">
         <v>119</v>
@@ -9014,7 +9014,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C460" t="s">
         <v>39</v>
@@ -9025,7 +9025,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C461" t="s">
         <v>8</v>
@@ -9036,7 +9036,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="C462" t="s">
         <v>3</v>
@@ -9047,10 +9047,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C463" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.3">
@@ -9058,7 +9058,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C464" t="s">
         <v>74</v>
@@ -9069,10 +9069,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C465" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.3">
@@ -9080,10 +9080,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C466" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.3">
@@ -9091,10 +9091,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C467" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.3">
@@ -9102,10 +9102,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C468" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.3">
@@ -9113,10 +9113,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C469" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.3">
@@ -9124,7 +9124,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C470" t="s">
         <v>74</v>
@@ -9135,7 +9135,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C471" t="s">
         <v>3</v>
@@ -9146,7 +9146,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C472" t="s">
         <v>3</v>
@@ -9157,7 +9157,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C473" t="s">
         <v>3</v>
@@ -9168,7 +9168,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C474" t="s">
         <v>46</v>
@@ -9179,7 +9179,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C475" t="s">
         <v>31</v>
@@ -9190,7 +9190,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C476" t="s">
         <v>3</v>
@@ -9201,10 +9201,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C477" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.3">
@@ -9212,10 +9212,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C478" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.3">
@@ -9223,10 +9223,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C479" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.3">
@@ -9234,10 +9234,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C480" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.3">
@@ -9245,10 +9245,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C481" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.3">
@@ -9256,7 +9256,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C482" t="s">
         <v>31</v>
@@ -9267,7 +9267,7 @@
         <v>481</v>
       </c>
       <c r="B483" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C483" t="s">
         <v>8</v>
@@ -9278,10 +9278,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C484" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.3">
@@ -9289,7 +9289,7 @@
         <v>483</v>
       </c>
       <c r="B485" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C485" t="s">
         <v>88</v>
@@ -9300,7 +9300,7 @@
         <v>484</v>
       </c>
       <c r="B486" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C486" t="s">
         <v>3</v>
@@ -9311,7 +9311,7 @@
         <v>485</v>
       </c>
       <c r="B487" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C487" t="s">
         <v>74</v>
@@ -9322,7 +9322,7 @@
         <v>486</v>
       </c>
       <c r="B488" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C488" t="s">
         <v>31</v>
@@ -9333,10 +9333,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C489" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.3">
@@ -9344,10 +9344,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C490" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.3">
@@ -9355,7 +9355,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="C491" t="s">
         <v>74</v>
@@ -9366,10 +9366,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C492" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.3">
@@ -9377,7 +9377,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="C493" t="s">
         <v>3</v>
@@ -9388,10 +9388,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C494" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.3">
@@ -9399,10 +9399,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="C495" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.3">
@@ -9410,7 +9410,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C496" t="s">
         <v>31</v>
@@ -9421,10 +9421,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="C497" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.3">
@@ -9432,10 +9432,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C498" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.3">
@@ -9443,7 +9443,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="C499" t="s">
         <v>46</v>
@@ -9454,7 +9454,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C500" t="s">
         <v>139</v>
@@ -9465,10 +9465,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C501" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.3">
@@ -9476,7 +9476,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C502" t="s">
         <v>39</v>
@@ -9487,7 +9487,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="C503" t="s">
         <v>111</v>
@@ -9498,10 +9498,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C504" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.3">
@@ -9509,10 +9509,10 @@
         <v>503</v>
       </c>
       <c r="B505" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="C505" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.3">
@@ -9520,7 +9520,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="C506" t="s">
         <v>36</v>
@@ -9531,7 +9531,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C507" t="s">
         <v>46</v>
@@ -9542,7 +9542,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="C508" t="s">
         <v>3</v>
@@ -9553,7 +9553,7 @@
         <v>507</v>
       </c>
       <c r="B509" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="C509" t="s">
         <v>3</v>
@@ -9564,7 +9564,7 @@
         <v>508</v>
       </c>
       <c r="B510" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="C510" t="s">
         <v>3</v>
@@ -9575,7 +9575,7 @@
         <v>509</v>
       </c>
       <c r="B511" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C511" t="s">
         <v>31</v>
@@ -9586,10 +9586,10 @@
         <v>510</v>
       </c>
       <c r="B512" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C512" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.3">
@@ -9597,7 +9597,7 @@
         <v>511</v>
       </c>
       <c r="B513" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="C513" t="s">
         <v>8</v>
@@ -9608,7 +9608,7 @@
         <v>512</v>
       </c>
       <c r="B514" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C514" t="s">
         <v>119</v>
@@ -9619,7 +9619,7 @@
         <v>513</v>
       </c>
       <c r="B515" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C515" t="s">
         <v>3</v>
@@ -9630,10 +9630,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="C516" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.3">
@@ -9641,7 +9641,7 @@
         <v>515</v>
       </c>
       <c r="B517" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C517" t="s">
         <v>25</v>
@@ -9652,10 +9652,10 @@
         <v>516</v>
       </c>
       <c r="B518" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="C518" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.3">
@@ -9663,7 +9663,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C519" t="s">
         <v>111</v>
@@ -9674,7 +9674,7 @@
         <v>518</v>
       </c>
       <c r="B520" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C520" t="s">
         <v>36</v>
@@ -9685,7 +9685,7 @@
         <v>519</v>
       </c>
       <c r="B521" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C521" t="s">
         <v>111</v>
@@ -9696,7 +9696,7 @@
         <v>520</v>
       </c>
       <c r="B522" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C522" t="s">
         <v>139</v>
@@ -9707,7 +9707,7 @@
         <v>521</v>
       </c>
       <c r="B523" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C523" t="s">
         <v>139</v>
@@ -9718,7 +9718,7 @@
         <v>522</v>
       </c>
       <c r="B524" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C524" t="s">
         <v>31</v>
@@ -9729,7 +9729,7 @@
         <v>523</v>
       </c>
       <c r="B525" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="C525" t="s">
         <v>3</v>
@@ -9740,7 +9740,7 @@
         <v>524</v>
       </c>
       <c r="B526" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C526" t="s">
         <v>74</v>
@@ -9751,10 +9751,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C527" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.3">
@@ -9762,7 +9762,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C528" t="s">
         <v>46</v>
@@ -9773,10 +9773,10 @@
         <v>527</v>
       </c>
       <c r="B529" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C529" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.3">
@@ -9784,10 +9784,10 @@
         <v>528</v>
       </c>
       <c r="B530" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C530" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.3">
@@ -9795,7 +9795,7 @@
         <v>529</v>
       </c>
       <c r="B531" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C531" t="s">
         <v>139</v>
@@ -9806,7 +9806,7 @@
         <v>530</v>
       </c>
       <c r="B532" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C532" t="s">
         <v>139</v>
@@ -9817,7 +9817,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="C533" t="s">
         <v>74</v>
@@ -9828,7 +9828,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C534" t="s">
         <v>74</v>
@@ -9839,7 +9839,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C535" t="s">
         <v>74</v>
@@ -9850,7 +9850,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C536" t="s">
         <v>74</v>
@@ -9861,7 +9861,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="C537" t="s">
         <v>53</v>
@@ -9872,7 +9872,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C538" t="s">
         <v>53</v>
@@ -9883,7 +9883,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C539" t="s">
         <v>13</v>
@@ -9894,7 +9894,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C540" t="s">
         <v>39</v>
@@ -9905,7 +9905,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="C541" t="s">
         <v>53</v>
@@ -9916,10 +9916,10 @@
         <v>540</v>
       </c>
       <c r="B542" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="C542" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.3">
@@ -9927,10 +9927,10 @@
         <v>541</v>
       </c>
       <c r="B543" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C543" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.3">
@@ -9938,7 +9938,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C544" t="s">
         <v>3</v>
@@ -9949,7 +9949,7 @@
         <v>543</v>
       </c>
       <c r="B545" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="C545" t="s">
         <v>103</v>
@@ -9960,10 +9960,10 @@
         <v>544</v>
       </c>
       <c r="B546" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C546" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.3">
@@ -9971,7 +9971,7 @@
         <v>545</v>
       </c>
       <c r="B547" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C547" t="s">
         <v>3</v>
@@ -9982,7 +9982,7 @@
         <v>546</v>
       </c>
       <c r="B548" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="C548" t="s">
         <v>3</v>
@@ -9993,10 +9993,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C549" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.3">
@@ -10004,7 +10004,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="C550" t="s">
         <v>3</v>
@@ -10015,10 +10015,10 @@
         <v>549</v>
       </c>
       <c r="B551" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="C551" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.3">
@@ -10026,7 +10026,7 @@
         <v>550</v>
       </c>
       <c r="B552" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="C552" t="s">
         <v>36</v>
@@ -10037,7 +10037,7 @@
         <v>551</v>
       </c>
       <c r="B553" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C553" t="s">
         <v>119</v>
@@ -10048,10 +10048,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="C554" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.3">
@@ -10059,10 +10059,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C555" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.3">
@@ -10070,7 +10070,7 @@
         <v>554</v>
       </c>
       <c r="B556" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C556" t="s">
         <v>31</v>
@@ -10081,10 +10081,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="C557" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.3">
@@ -10092,7 +10092,7 @@
         <v>556</v>
       </c>
       <c r="B558" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="C558" t="s">
         <v>3</v>
@@ -10103,7 +10103,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="C559" t="s">
         <v>8</v>
@@ -10114,7 +10114,7 @@
         <v>558</v>
       </c>
       <c r="B560" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="C560" t="s">
         <v>31</v>
@@ -10125,7 +10125,7 @@
         <v>559</v>
       </c>
       <c r="B561" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C561" t="s">
         <v>31</v>
@@ -10136,7 +10136,7 @@
         <v>560</v>
       </c>
       <c r="B562" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="C562" t="s">
         <v>25</v>
@@ -10147,7 +10147,7 @@
         <v>561</v>
       </c>
       <c r="B563" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C563" t="s">
         <v>3</v>
@@ -10158,7 +10158,7 @@
         <v>562</v>
       </c>
       <c r="B564" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="C564" t="s">
         <v>86</v>
@@ -10169,10 +10169,10 @@
         <v>563</v>
       </c>
       <c r="B565" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="C565" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.3">
@@ -10180,7 +10180,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C566" t="s">
         <v>74</v>
@@ -10191,7 +10191,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="C567" t="s">
         <v>36</v>
@@ -10202,7 +10202,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="C568" t="s">
         <v>36</v>
@@ -10213,7 +10213,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="C569" t="s">
         <v>32</v>
@@ -10224,10 +10224,10 @@
         <v>568</v>
       </c>
       <c r="B570" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="C570" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.3">
@@ -10235,7 +10235,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="C571" t="s">
         <v>3</v>
@@ -10246,7 +10246,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="C572" t="s">
         <v>36</v>
@@ -10257,7 +10257,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="C573" t="s">
         <v>111</v>
@@ -10268,7 +10268,7 @@
         <v>572</v>
       </c>
       <c r="B574" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C574" t="s">
         <v>36</v>
@@ -10279,7 +10279,7 @@
         <v>573</v>
       </c>
       <c r="B575" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="C575" t="s">
         <v>74</v>
@@ -10290,7 +10290,7 @@
         <v>574</v>
       </c>
       <c r="B576" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="C576" t="s">
         <v>46</v>
@@ -10301,7 +10301,7 @@
         <v>575</v>
       </c>
       <c r="B577" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="C577" t="s">
         <v>31</v>
@@ -10312,7 +10312,7 @@
         <v>576</v>
       </c>
       <c r="B578" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C578" t="s">
         <v>31</v>
@@ -10323,7 +10323,7 @@
         <v>577</v>
       </c>
       <c r="B579" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C579" t="s">
         <v>31</v>
@@ -10334,7 +10334,7 @@
         <v>578</v>
       </c>
       <c r="B580" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="C580" t="s">
         <v>111</v>
@@ -10345,7 +10345,7 @@
         <v>579</v>
       </c>
       <c r="B581" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="C581" t="s">
         <v>36</v>
@@ -10356,10 +10356,10 @@
         <v>580</v>
       </c>
       <c r="B582" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C582" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.3">
@@ -10367,10 +10367,10 @@
         <v>581</v>
       </c>
       <c r="B583" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C583" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.3">
@@ -10378,7 +10378,7 @@
         <v>582</v>
       </c>
       <c r="B584" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C584" t="s">
         <v>86</v>
@@ -10389,7 +10389,7 @@
         <v>583</v>
       </c>
       <c r="B585" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="C585" t="s">
         <v>139</v>
@@ -10400,10 +10400,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C586" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.3">
@@ -10411,10 +10411,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="C587" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.3">
@@ -10422,7 +10422,7 @@
         <v>586</v>
       </c>
       <c r="B588" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="C588" t="s">
         <v>74</v>
@@ -10433,10 +10433,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="C589" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.3">
@@ -10444,7 +10444,7 @@
         <v>588</v>
       </c>
       <c r="B590" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="C590" t="s">
         <v>53</v>
@@ -10455,7 +10455,7 @@
         <v>589</v>
       </c>
       <c r="B591" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="C591" t="s">
         <v>53</v>
@@ -10466,7 +10466,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
       <c r="C592" t="s">
         <v>25</v>
@@ -10477,10 +10477,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="C593" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.3">
@@ -10488,7 +10488,7 @@
         <v>592</v>
       </c>
       <c r="B594" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="C594" t="s">
         <v>3</v>
@@ -10499,7 +10499,7 @@
         <v>593</v>
       </c>
       <c r="B595" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="C595" t="s">
         <v>39</v>
@@ -10510,7 +10510,7 @@
         <v>594</v>
       </c>
       <c r="B596" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C596" t="s">
         <v>80</v>
@@ -10521,7 +10521,7 @@
         <v>595</v>
       </c>
       <c r="B597" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="C597" t="s">
         <v>3</v>
@@ -10532,7 +10532,7 @@
         <v>596</v>
       </c>
       <c r="B598" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="C598" t="s">
         <v>31</v>
@@ -10543,7 +10543,7 @@
         <v>597</v>
       </c>
       <c r="B599" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="C599" t="s">
         <v>119</v>
@@ -10554,7 +10554,7 @@
         <v>598</v>
       </c>
       <c r="B600" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C600" t="s">
         <v>46</v>
@@ -10565,7 +10565,7 @@
         <v>599</v>
       </c>
       <c r="B601" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C601" t="s">
         <v>3</v>
@@ -10576,7 +10576,7 @@
         <v>600</v>
       </c>
       <c r="B602" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="C602" t="s">
         <v>8</v>
@@ -10587,10 +10587,10 @@
         <v>601</v>
       </c>
       <c r="B603" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="C603" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.3">
@@ -10598,7 +10598,7 @@
         <v>602</v>
       </c>
       <c r="B604" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C604" t="s">
         <v>25</v>
@@ -10609,10 +10609,10 @@
         <v>603</v>
       </c>
       <c r="B605" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="C605" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.3">
@@ -10620,10 +10620,10 @@
         <v>604</v>
       </c>
       <c r="B606" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="C606" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.3">
@@ -10631,7 +10631,7 @@
         <v>605</v>
       </c>
       <c r="B607" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="C607" t="s">
         <v>25</v>
@@ -10642,7 +10642,7 @@
         <v>606</v>
       </c>
       <c r="B608" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="C608" t="s">
         <v>46</v>
@@ -10653,7 +10653,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C609" t="s">
         <v>111</v>
@@ -10664,7 +10664,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="C610" t="s">
         <v>3</v>
@@ -10675,7 +10675,7 @@
         <v>609</v>
       </c>
       <c r="B611" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="C611" t="s">
         <v>46</v>
@@ -10686,10 +10686,10 @@
         <v>610</v>
       </c>
       <c r="B612" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="C612" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.3">
@@ -10697,7 +10697,7 @@
         <v>611</v>
       </c>
       <c r="B613" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="C613" t="s">
         <v>111</v>
@@ -10708,10 +10708,10 @@
         <v>612</v>
       </c>
       <c r="B614" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="C614" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.3">
@@ -10719,10 +10719,10 @@
         <v>613</v>
       </c>
       <c r="B615" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="C615" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.3">
@@ -10730,7 +10730,7 @@
         <v>614</v>
       </c>
       <c r="B616" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="C616" t="s">
         <v>8</v>
@@ -10741,7 +10741,7 @@
         <v>615</v>
       </c>
       <c r="B617" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C617" t="s">
         <v>31</v>
@@ -10752,10 +10752,10 @@
         <v>616</v>
       </c>
       <c r="B618" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C618" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.3">
@@ -10763,7 +10763,7 @@
         <v>617</v>
       </c>
       <c r="B619" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C619" t="s">
         <v>88</v>
@@ -10774,7 +10774,7 @@
         <v>618</v>
       </c>
       <c r="B620" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="C620" t="s">
         <v>88</v>
@@ -10785,7 +10785,7 @@
         <v>619</v>
       </c>
       <c r="B621" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="C621" t="s">
         <v>88</v>
@@ -10796,7 +10796,7 @@
         <v>620</v>
       </c>
       <c r="B622" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="C622" t="s">
         <v>3</v>
@@ -10807,10 +10807,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="C623" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.3">
@@ -10818,7 +10818,7 @@
         <v>622</v>
       </c>
       <c r="B624" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="C624" t="s">
         <v>74</v>
@@ -10829,10 +10829,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="C625" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.3">
@@ -10840,10 +10840,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="C626" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.3">
@@ -10851,10 +10851,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C627" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.3">
@@ -10862,10 +10862,10 @@
         <v>626</v>
       </c>
       <c r="B628" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="C628" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.3">
@@ -10873,10 +10873,10 @@
         <v>627</v>
       </c>
       <c r="B629" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="C629" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.3">
@@ -10884,7 +10884,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C630" t="s">
         <v>86</v>
@@ -10895,10 +10895,10 @@
         <v>629</v>
       </c>
       <c r="B631" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="C631" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.3">
@@ -10906,10 +10906,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C632" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.3">
@@ -10917,10 +10917,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="C633" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.3">
@@ -10928,7 +10928,7 @@
         <v>632</v>
       </c>
       <c r="B634" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="C634" t="s">
         <v>74</v>
@@ -10939,7 +10939,7 @@
         <v>633</v>
       </c>
       <c r="B635" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C635" t="s">
         <v>39</v>
@@ -10950,7 +10950,7 @@
         <v>634</v>
       </c>
       <c r="B636" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="C636" t="s">
         <v>53</v>
@@ -10961,7 +10961,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="C637" t="s">
         <v>133</v>
@@ -10972,7 +10972,7 @@
         <v>636</v>
       </c>
       <c r="B638" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="C638" t="s">
         <v>8</v>
@@ -10983,10 +10983,10 @@
         <v>637</v>
       </c>
       <c r="B639" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="C639" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.3">
@@ -10994,7 +10994,7 @@
         <v>638</v>
       </c>
       <c r="B640" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="C640" t="s">
         <v>3</v>
@@ -11005,7 +11005,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="C641" t="s">
         <v>8</v>
@@ -11016,10 +11016,10 @@
         <v>640</v>
       </c>
       <c r="B642" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="C642" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.3">
@@ -11027,10 +11027,10 @@
         <v>641</v>
       </c>
       <c r="B643" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="C643" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.3">
@@ -11038,10 +11038,10 @@
         <v>642</v>
       </c>
       <c r="B644" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="C644" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.3">
@@ -11049,7 +11049,7 @@
         <v>643</v>
       </c>
       <c r="B645" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="C645" t="s">
         <v>3</v>
@@ -11060,7 +11060,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="C646" t="s">
         <v>3</v>
@@ -11071,7 +11071,7 @@
         <v>645</v>
       </c>
       <c r="B647" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="C647" t="s">
         <v>8</v>
@@ -11082,7 +11082,7 @@
         <v>646</v>
       </c>
       <c r="B648" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="C648" t="s">
         <v>3</v>
@@ -11093,10 +11093,10 @@
         <v>647</v>
       </c>
       <c r="B649" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="C649" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.3">
@@ -11104,7 +11104,7 @@
         <v>648</v>
       </c>
       <c r="B650" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="C650" t="s">
         <v>8</v>
@@ -11115,10 +11115,10 @@
         <v>649</v>
       </c>
       <c r="B651" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C651" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.3">
@@ -11126,10 +11126,10 @@
         <v>650</v>
       </c>
       <c r="B652" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="C652" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.3">
@@ -11137,7 +11137,7 @@
         <v>651</v>
       </c>
       <c r="B653" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="C653" t="s">
         <v>46</v>
@@ -11148,10 +11148,10 @@
         <v>652</v>
       </c>
       <c r="B654" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C654" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.3">
@@ -11159,7 +11159,7 @@
         <v>653</v>
       </c>
       <c r="B655" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="C655" t="s">
         <v>31</v>
@@ -11170,7 +11170,7 @@
         <v>654</v>
       </c>
       <c r="B656" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="C656" t="s">
         <v>39</v>
@@ -11181,7 +11181,7 @@
         <v>655</v>
       </c>
       <c r="B657" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="C657" t="s">
         <v>25</v>
@@ -11192,7 +11192,7 @@
         <v>656</v>
       </c>
       <c r="B658" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="C658" t="s">
         <v>3</v>
@@ -11203,7 +11203,7 @@
         <v>657</v>
       </c>
       <c r="B659" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="C659" t="s">
         <v>103</v>
@@ -11214,10 +11214,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="C660" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.3">
@@ -11225,10 +11225,10 @@
         <v>659</v>
       </c>
       <c r="B661" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C661" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.3">
@@ -11236,7 +11236,7 @@
         <v>660</v>
       </c>
       <c r="B662" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C662" t="s">
         <v>36</v>
@@ -11247,7 +11247,7 @@
         <v>661</v>
       </c>
       <c r="B663" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="C663" t="s">
         <v>46</v>
@@ -11258,10 +11258,10 @@
         <v>662</v>
       </c>
       <c r="B664" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="C664" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.3">
@@ -11269,10 +11269,10 @@
         <v>663</v>
       </c>
       <c r="B665" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="C665" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.3">
@@ -11280,7 +11280,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="C666" t="s">
         <v>36</v>
@@ -11291,10 +11291,10 @@
         <v>665</v>
       </c>
       <c r="B667" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="C667" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.3">
@@ -11302,7 +11302,7 @@
         <v>666</v>
       </c>
       <c r="B668" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="C668" t="s">
         <v>46</v>
@@ -11313,10 +11313,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="C669" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.3">
@@ -11324,7 +11324,7 @@
         <v>668</v>
       </c>
       <c r="B670" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="C670" t="s">
         <v>3</v>
@@ -11335,7 +11335,7 @@
         <v>669</v>
       </c>
       <c r="B671" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="C671" t="s">
         <v>3</v>
@@ -11346,10 +11346,10 @@
         <v>670</v>
       </c>
       <c r="B672" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="C672" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.3">
@@ -11357,10 +11357,10 @@
         <v>671</v>
       </c>
       <c r="B673" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="C673" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.3">
@@ -11368,10 +11368,10 @@
         <v>672</v>
       </c>
       <c r="B674" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="C674" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.3">
@@ -11379,7 +11379,7 @@
         <v>673</v>
       </c>
       <c r="B675" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="C675" t="s">
         <v>3</v>
@@ -11390,7 +11390,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="C676" t="s">
         <v>31</v>
@@ -11401,7 +11401,7 @@
         <v>675</v>
       </c>
       <c r="B677" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="C677" t="s">
         <v>3</v>
@@ -11412,7 +11412,7 @@
         <v>676</v>
       </c>
       <c r="B678" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="C678" t="s">
         <v>3</v>
@@ -11423,7 +11423,7 @@
         <v>677</v>
       </c>
       <c r="B679" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C679" t="s">
         <v>36</v>
@@ -11434,10 +11434,10 @@
         <v>678</v>
       </c>
       <c r="B680" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="C680" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.3">
@@ -11445,10 +11445,10 @@
         <v>679</v>
       </c>
       <c r="B681" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="C681" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.3">
@@ -11456,10 +11456,10 @@
         <v>680</v>
       </c>
       <c r="B682" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="C682" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.3">
@@ -11467,10 +11467,10 @@
         <v>681</v>
       </c>
       <c r="B683" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="C683" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.3">
@@ -11478,10 +11478,10 @@
         <v>682</v>
       </c>
       <c r="B684" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="C684" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.3">
@@ -11489,7 +11489,7 @@
         <v>683</v>
       </c>
       <c r="B685" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="C685" t="s">
         <v>86</v>
@@ -11500,10 +11500,10 @@
         <v>684</v>
       </c>
       <c r="B686" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="C686" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.3">
@@ -11511,7 +11511,7 @@
         <v>685</v>
       </c>
       <c r="B687" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="C687" t="s">
         <v>139</v>
@@ -11522,7 +11522,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="C688" t="s">
         <v>139</v>
@@ -11533,7 +11533,7 @@
         <v>687</v>
       </c>
       <c r="B689" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="C689" t="s">
         <v>74</v>
@@ -11544,7 +11544,7 @@
         <v>688</v>
       </c>
       <c r="B690" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="C690" t="s">
         <v>74</v>
@@ -11555,7 +11555,7 @@
         <v>689</v>
       </c>
       <c r="B691" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="C691" t="s">
         <v>53</v>
@@ -11566,7 +11566,7 @@
         <v>690</v>
       </c>
       <c r="B692" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="C692" t="s">
         <v>3</v>
@@ -11577,7 +11577,7 @@
         <v>691</v>
       </c>
       <c r="B693" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C693" t="s">
         <v>3</v>
@@ -11588,10 +11588,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="C694" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.3">
@@ -11599,10 +11599,10 @@
         <v>693</v>
       </c>
       <c r="B695" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="C695" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.3">
@@ -11610,10 +11610,10 @@
         <v>694</v>
       </c>
       <c r="B696" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="C696" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.3">
@@ -11621,10 +11621,10 @@
         <v>695</v>
       </c>
       <c r="B697" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="C697" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.3">
@@ -11632,10 +11632,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="C698" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.3">
@@ -11643,7 +11643,7 @@
         <v>697</v>
       </c>
       <c r="B699" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C699" t="s">
         <v>46</v>
@@ -11654,7 +11654,7 @@
         <v>698</v>
       </c>
       <c r="B700" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="C700" t="s">
         <v>39</v>
@@ -11665,7 +11665,7 @@
         <v>699</v>
       </c>
       <c r="B701" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C701" t="s">
         <v>3</v>
@@ -11676,7 +11676,7 @@
         <v>700</v>
       </c>
       <c r="B702" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="C702" t="s">
         <v>3</v>
@@ -11687,10 +11687,10 @@
         <v>701</v>
       </c>
       <c r="B703" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="C703" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.3">
@@ -11698,10 +11698,10 @@
         <v>702</v>
       </c>
       <c r="B704" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C704" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.3">
@@ -11709,7 +11709,7 @@
         <v>703</v>
       </c>
       <c r="B705" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="C705" t="s">
         <v>31</v>
@@ -11720,7 +11720,7 @@
         <v>704</v>
       </c>
       <c r="B706" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="C706" t="s">
         <v>31</v>
@@ -11731,7 +11731,7 @@
         <v>705</v>
       </c>
       <c r="B707" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C707" t="s">
         <v>8</v>
@@ -11742,7 +11742,7 @@
         <v>706</v>
       </c>
       <c r="B708" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="C708" t="s">
         <v>31</v>
@@ -11753,7 +11753,7 @@
         <v>707</v>
       </c>
       <c r="B709" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="C709" t="s">
         <v>3</v>
@@ -11764,10 +11764,10 @@
         <v>708</v>
       </c>
       <c r="B710" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="C710" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.3">
@@ -11775,7 +11775,7 @@
         <v>709</v>
       </c>
       <c r="B711" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="C711" t="s">
         <v>46</v>
@@ -11786,10 +11786,10 @@
         <v>710</v>
       </c>
       <c r="B712" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C712" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.3">
@@ -11797,7 +11797,7 @@
         <v>711</v>
       </c>
       <c r="B713" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="C713" t="s">
         <v>31</v>
@@ -11808,7 +11808,7 @@
         <v>712</v>
       </c>
       <c r="B714" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="C714" t="s">
         <v>133</v>
@@ -11819,10 +11819,10 @@
         <v>713</v>
       </c>
       <c r="B715" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C715" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.3">
@@ -11830,10 +11830,10 @@
         <v>714</v>
       </c>
       <c r="B716" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="C716" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.3">
@@ -11841,7 +11841,7 @@
         <v>715</v>
       </c>
       <c r="B717" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="C717" t="s">
         <v>46</v>
@@ -11852,10 +11852,10 @@
         <v>716</v>
       </c>
       <c r="B718" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="C718" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.3">
@@ -11863,7 +11863,7 @@
         <v>717</v>
       </c>
       <c r="B719" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="C719" t="s">
         <v>111</v>
@@ -11874,7 +11874,7 @@
         <v>718</v>
       </c>
       <c r="B720" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="C720" t="s">
         <v>8</v>
@@ -11885,10 +11885,10 @@
         <v>719</v>
       </c>
       <c r="B721" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="C721" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.3">
@@ -11896,7 +11896,7 @@
         <v>720</v>
       </c>
       <c r="B722" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="C722" t="s">
         <v>103</v>
@@ -11907,7 +11907,7 @@
         <v>721</v>
       </c>
       <c r="B723" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="C723" t="s">
         <v>39</v>
@@ -11918,7 +11918,7 @@
         <v>722</v>
       </c>
       <c r="B724" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="C724" t="s">
         <v>8</v>
@@ -11929,10 +11929,10 @@
         <v>723</v>
       </c>
       <c r="B725" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="C725" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.3">
@@ -11940,7 +11940,7 @@
         <v>724</v>
       </c>
       <c r="B726" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="C726" t="s">
         <v>36</v>
@@ -11951,7 +11951,7 @@
         <v>725</v>
       </c>
       <c r="B727" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="C727" t="s">
         <v>36</v>
@@ -11962,10 +11962,10 @@
         <v>726</v>
       </c>
       <c r="B728" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="C728" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.3">
@@ -11973,10 +11973,10 @@
         <v>727</v>
       </c>
       <c r="B729" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="C729" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.3">
@@ -11984,10 +11984,10 @@
         <v>728</v>
       </c>
       <c r="B730" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="C730" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.3">
@@ -11995,7 +11995,7 @@
         <v>729</v>
       </c>
       <c r="B731" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="C731" t="s">
         <v>3</v>
@@ -12006,10 +12006,10 @@
         <v>730</v>
       </c>
       <c r="B732" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="C732" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.3">
@@ -12017,7 +12017,7 @@
         <v>731</v>
       </c>
       <c r="B733" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="C733" t="s">
         <v>36</v>
@@ -12028,7 +12028,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="C734" t="s">
         <v>3</v>
@@ -12039,7 +12039,7 @@
         <v>733</v>
       </c>
       <c r="B735" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="C735" t="s">
         <v>3</v>
@@ -12050,7 +12050,7 @@
         <v>734</v>
       </c>
       <c r="B736" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="C736" t="s">
         <v>36</v>
@@ -12061,10 +12061,10 @@
         <v>735</v>
       </c>
       <c r="B737" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="C737" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.3">
@@ -12072,10 +12072,10 @@
         <v>736</v>
       </c>
       <c r="B738" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="C738" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.3">
@@ -12083,7 +12083,7 @@
         <v>737</v>
       </c>
       <c r="B739" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C739" t="s">
         <v>86</v>
@@ -12094,10 +12094,10 @@
         <v>738</v>
       </c>
       <c r="B740" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="C740" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.3">
@@ -12105,10 +12105,10 @@
         <v>739</v>
       </c>
       <c r="B741" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="C741" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.3">
@@ -12116,10 +12116,10 @@
         <v>740</v>
       </c>
       <c r="B742" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="C742" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.3">
@@ -12127,10 +12127,10 @@
         <v>741</v>
       </c>
       <c r="B743" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
       <c r="C743" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.3">
@@ -12138,7 +12138,7 @@
         <v>742</v>
       </c>
       <c r="B744" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="C744" t="s">
         <v>133</v>
@@ -12149,7 +12149,7 @@
         <v>743</v>
       </c>
       <c r="B745" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="C745" t="s">
         <v>8</v>
@@ -12160,10 +12160,10 @@
         <v>744</v>
       </c>
       <c r="B746" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
       <c r="C746" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.3">
@@ -12171,7 +12171,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="C747" t="s">
         <v>3</v>
@@ -12182,7 +12182,7 @@
         <v>746</v>
       </c>
       <c r="B748" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
       <c r="C748" t="s">
         <v>3</v>
@@ -12193,10 +12193,10 @@
         <v>747</v>
       </c>
       <c r="B749" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="C749" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.3">
@@ -12204,10 +12204,10 @@
         <v>748</v>
       </c>
       <c r="B750" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="C750" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.3">
@@ -12215,10 +12215,10 @@
         <v>749</v>
       </c>
       <c r="B751" t="s">
-        <v>809</v>
+        <v>798</v>
       </c>
       <c r="C751" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.3">
@@ -12226,10 +12226,10 @@
         <v>750</v>
       </c>
       <c r="B752" t="s">
-        <v>810</v>
+        <v>799</v>
       </c>
       <c r="C752" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.3">
@@ -12237,7 +12237,7 @@
         <v>751</v>
       </c>
       <c r="B753" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
       <c r="C753" t="s">
         <v>8</v>
@@ -12248,10 +12248,10 @@
         <v>752</v>
       </c>
       <c r="B754" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="C754" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.3">
@@ -12259,7 +12259,7 @@
         <v>753</v>
       </c>
       <c r="B755" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="C755" t="s">
         <v>3</v>
@@ -12270,7 +12270,7 @@
         <v>754</v>
       </c>
       <c r="B756" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="C756" t="s">
         <v>25</v>
@@ -12281,10 +12281,10 @@
         <v>755</v>
       </c>
       <c r="B757" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="C757" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.3">
@@ -12292,10 +12292,10 @@
         <v>756</v>
       </c>
       <c r="B758" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="C758" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.3">
@@ -12303,10 +12303,10 @@
         <v>757</v>
       </c>
       <c r="B759" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
       <c r="C759" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.3">
@@ -12314,10 +12314,10 @@
         <v>758</v>
       </c>
       <c r="B760" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="C760" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.3">
@@ -12325,10 +12325,10 @@
         <v>759</v>
       </c>
       <c r="B761" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C761" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.3">
@@ -12336,10 +12336,10 @@
         <v>760</v>
       </c>
       <c r="B762" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
       <c r="C762" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.3">
@@ -12347,7 +12347,7 @@
         <v>761</v>
       </c>
       <c r="B763" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="C763" t="s">
         <v>3</v>
@@ -12358,10 +12358,10 @@
         <v>762</v>
       </c>
       <c r="B764" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C764" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.3">
@@ -12369,7 +12369,7 @@
         <v>763</v>
       </c>
       <c r="B765" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="C765" t="s">
         <v>25</v>
@@ -12380,7 +12380,7 @@
         <v>764</v>
       </c>
       <c r="B766" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="C766" t="s">
         <v>3</v>
@@ -12391,7 +12391,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="C767" t="s">
         <v>3</v>
@@ -12402,7 +12402,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="C768" t="s">
         <v>36</v>
@@ -12413,10 +12413,10 @@
         <v>767</v>
       </c>
       <c r="B769" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="C769" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.3">
@@ -12424,7 +12424,7 @@
         <v>768</v>
       </c>
       <c r="B770" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="C770" t="s">
         <v>3</v>
@@ -12435,10 +12435,10 @@
         <v>769</v>
       </c>
       <c r="B771" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="C771" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.3">
@@ -12446,10 +12446,10 @@
         <v>770</v>
       </c>
       <c r="B772" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="C772" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.3">
@@ -12457,7 +12457,7 @@
         <v>771</v>
       </c>
       <c r="B773" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="C773" t="s">
         <v>3</v>
@@ -12468,7 +12468,7 @@
         <v>772</v>
       </c>
       <c r="B774" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="C774" t="s">
         <v>36</v>
@@ -12479,7 +12479,7 @@
         <v>773</v>
       </c>
       <c r="B775" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="C775" t="s">
         <v>8</v>
@@ -12490,10 +12490,10 @@
         <v>774</v>
       </c>
       <c r="B776" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="C776" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.3">
@@ -12501,10 +12501,10 @@
         <v>775</v>
       </c>
       <c r="B777" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="C777" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.3">
@@ -12512,10 +12512,10 @@
         <v>776</v>
       </c>
       <c r="B778" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C778" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.3">
@@ -12523,10 +12523,10 @@
         <v>777</v>
       </c>
       <c r="B779" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="C779" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.3">
@@ -12534,10 +12534,10 @@
         <v>778</v>
       </c>
       <c r="B780" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C780" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.3">
@@ -12545,7 +12545,7 @@
         <v>779</v>
       </c>
       <c r="B781" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C781" t="s">
         <v>139</v>
@@ -12556,10 +12556,10 @@
         <v>780</v>
       </c>
       <c r="B782" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="C782" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.3">
@@ -12567,10 +12567,10 @@
         <v>781</v>
       </c>
       <c r="B783" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="C783" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.3">
@@ -12578,10 +12578,10 @@
         <v>782</v>
       </c>
       <c r="B784" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C784" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.3">
@@ -12589,7 +12589,7 @@
         <v>783</v>
       </c>
       <c r="B785" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="C785" t="s">
         <v>53</v>
@@ -12600,7 +12600,7 @@
         <v>784</v>
       </c>
       <c r="B786" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="C786" t="s">
         <v>53</v>
@@ -12611,7 +12611,7 @@
         <v>785</v>
       </c>
       <c r="B787" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C787" t="s">
         <v>53</v>
@@ -12622,7 +12622,7 @@
         <v>786</v>
       </c>
       <c r="B788" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="C788" t="s">
         <v>53</v>
@@ -12633,7 +12633,7 @@
         <v>787</v>
       </c>
       <c r="B789" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C789" t="s">
         <v>133</v>
@@ -12644,10 +12644,10 @@
         <v>788</v>
       </c>
       <c r="B790" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="C790" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.3">
@@ -12655,10 +12655,10 @@
         <v>789</v>
       </c>
       <c r="B791" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="C791" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.3">
@@ -12666,10 +12666,10 @@
         <v>790</v>
       </c>
       <c r="B792" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="C792" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.3">
@@ -12677,7 +12677,7 @@
         <v>791</v>
       </c>
       <c r="B793" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="C793" t="s">
         <v>8</v>
@@ -12688,7 +12688,7 @@
         <v>792</v>
       </c>
       <c r="B794" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="C794" t="s">
         <v>8</v>
@@ -12699,7 +12699,7 @@
         <v>793</v>
       </c>
       <c r="B795" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="C795" t="s">
         <v>3</v>
@@ -12710,10 +12710,10 @@
         <v>794</v>
       </c>
       <c r="B796" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="C796" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.3">
@@ -12721,7 +12721,7 @@
         <v>795</v>
       </c>
       <c r="B797" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="C797" t="s">
         <v>8</v>
@@ -12732,7 +12732,7 @@
         <v>796</v>
       </c>
       <c r="B798" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="C798" t="s">
         <v>25</v>
@@ -12743,7 +12743,7 @@
         <v>797</v>
       </c>
       <c r="B799" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C799" t="s">
         <v>3</v>
@@ -12754,7 +12754,7 @@
         <v>798</v>
       </c>
       <c r="B800" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="C800" t="s">
         <v>36</v>
@@ -12765,7 +12765,7 @@
         <v>799</v>
       </c>
       <c r="B801" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C801" t="s">
         <v>46</v>
@@ -12776,7 +12776,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C802" t="s">
         <v>36</v>
@@ -12787,10 +12787,10 @@
         <v>801</v>
       </c>
       <c r="B803" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="C803" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.3">
@@ -12798,10 +12798,10 @@
         <v>802</v>
       </c>
       <c r="B804" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C804" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.3">
@@ -12809,10 +12809,10 @@
         <v>803</v>
       </c>
       <c r="B805" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="C805" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.3">
@@ -12820,10 +12820,10 @@
         <v>804</v>
       </c>
       <c r="B806" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="C806" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.3">
@@ -12831,10 +12831,10 @@
         <v>805</v>
       </c>
       <c r="B807" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C807" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.3">
@@ -12842,10 +12842,10 @@
         <v>806</v>
       </c>
       <c r="B808" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="C808" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.3">
@@ -12853,7 +12853,7 @@
         <v>807</v>
       </c>
       <c r="B809" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="C809" t="s">
         <v>36</v>
@@ -12864,10 +12864,10 @@
         <v>808</v>
       </c>
       <c r="B810" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="C810" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.3">
@@ -12875,7 +12875,7 @@
         <v>809</v>
       </c>
       <c r="B811" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="C811" t="s">
         <v>3</v>
@@ -12886,7 +12886,7 @@
         <v>810</v>
       </c>
       <c r="B812" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="C812" t="s">
         <v>25</v>
@@ -12897,10 +12897,10 @@
         <v>811</v>
       </c>
       <c r="B813" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="C813" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.3">
@@ -12908,10 +12908,10 @@
         <v>812</v>
       </c>
       <c r="B814" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="C814" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.3">
@@ -12919,10 +12919,10 @@
         <v>813</v>
       </c>
       <c r="B815" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="C815" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.3">
@@ -12930,7 +12930,7 @@
         <v>814</v>
       </c>
       <c r="B816" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="C816" t="s">
         <v>3</v>
@@ -12941,10 +12941,10 @@
         <v>815</v>
       </c>
       <c r="B817" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="C817" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.3">
@@ -12952,7 +12952,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="C818" t="s">
         <v>3</v>
@@ -12963,10 +12963,10 @@
         <v>817</v>
       </c>
       <c r="B819" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="C819" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.3">
@@ -12974,10 +12974,10 @@
         <v>818</v>
       </c>
       <c r="B820" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="C820" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.3">
@@ -12985,7 +12985,7 @@
         <v>819</v>
       </c>
       <c r="B821" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="C821" t="s">
         <v>31</v>
@@ -12996,7 +12996,7 @@
         <v>820</v>
       </c>
       <c r="B822" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="C822" t="s">
         <v>25</v>
@@ -13007,7 +13007,7 @@
         <v>821</v>
       </c>
       <c r="B823" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="C823" t="s">
         <v>31</v>
@@ -13018,7 +13018,7 @@
         <v>822</v>
       </c>
       <c r="B824" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="C824" t="s">
         <v>46</v>
@@ -13029,10 +13029,10 @@
         <v>823</v>
       </c>
       <c r="B825" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="C825" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.3">
@@ -13040,10 +13040,10 @@
         <v>824</v>
       </c>
       <c r="B826" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="C826" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.3">
@@ -13051,10 +13051,10 @@
         <v>825</v>
       </c>
       <c r="B827" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="C827" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.3">
@@ -13062,10 +13062,10 @@
         <v>826</v>
       </c>
       <c r="B828" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="C828" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.3">
@@ -13073,7 +13073,7 @@
         <v>827</v>
       </c>
       <c r="B829" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C829" t="s">
         <v>36</v>
@@ -13084,7 +13084,7 @@
         <v>828</v>
       </c>
       <c r="B830" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="C830" t="s">
         <v>8</v>
@@ -13095,7 +13095,7 @@
         <v>829</v>
       </c>
       <c r="B831" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="C831" t="s">
         <v>88</v>
@@ -13106,7 +13106,7 @@
         <v>830</v>
       </c>
       <c r="B832" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="C832" t="s">
         <v>3</v>
@@ -13117,7 +13117,7 @@
         <v>831</v>
       </c>
       <c r="B833" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="C833" t="s">
         <v>88</v>
@@ -13128,10 +13128,10 @@
         <v>832</v>
       </c>
       <c r="B834" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="C834" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.3">
@@ -13139,7 +13139,7 @@
         <v>833</v>
       </c>
       <c r="B835" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="C835" t="s">
         <v>3</v>
@@ -13150,10 +13150,10 @@
         <v>834</v>
       </c>
       <c r="B836" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="C836" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.3">
@@ -13161,10 +13161,10 @@
         <v>835</v>
       </c>
       <c r="B837" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="C837" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.3">
@@ -13172,7 +13172,7 @@
         <v>836</v>
       </c>
       <c r="B838" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C838" t="s">
         <v>3</v>
@@ -13183,10 +13183,10 @@
         <v>837</v>
       </c>
       <c r="B839" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="C839" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.3">
@@ -13194,10 +13194,10 @@
         <v>838</v>
       </c>
       <c r="B840" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="C840" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.3">
@@ -13205,7 +13205,7 @@
         <v>839</v>
       </c>
       <c r="B841" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="C841" t="s">
         <v>36</v>
@@ -13216,10 +13216,10 @@
         <v>840</v>
       </c>
       <c r="B842" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="C842" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.3">
@@ -13227,7 +13227,7 @@
         <v>841</v>
       </c>
       <c r="B843" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="C843" t="s">
         <v>8</v>
@@ -13238,10 +13238,10 @@
         <v>842</v>
       </c>
       <c r="B844" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C844" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
@@ -13249,7 +13249,7 @@
         <v>843</v>
       </c>
       <c r="B845" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="C845" t="s">
         <v>8</v>
@@ -13260,7 +13260,7 @@
         <v>844</v>
       </c>
       <c r="B846" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="C846" t="s">
         <v>3</v>
@@ -13271,7 +13271,7 @@
         <v>845</v>
       </c>
       <c r="B847" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="C847" t="s">
         <v>36</v>
@@ -13282,7 +13282,7 @@
         <v>846</v>
       </c>
       <c r="B848" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="C848" t="s">
         <v>3</v>
@@ -13293,7 +13293,7 @@
         <v>847</v>
       </c>
       <c r="B849" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="C849" t="s">
         <v>3</v>
@@ -13304,10 +13304,10 @@
         <v>848</v>
       </c>
       <c r="B850" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="C850" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.3">
@@ -13315,10 +13315,10 @@
         <v>849</v>
       </c>
       <c r="B851" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="C851" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.3">
@@ -13326,7 +13326,7 @@
         <v>850</v>
       </c>
       <c r="B852" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C852" t="s">
         <v>8</v>
@@ -13337,7 +13337,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="C853" t="s">
         <v>111</v>
@@ -13348,7 +13348,7 @@
         <v>852</v>
       </c>
       <c r="B854" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="C854" t="s">
         <v>36</v>
@@ -13359,7 +13359,7 @@
         <v>853</v>
       </c>
       <c r="B855" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="C855" t="s">
         <v>3</v>
@@ -13370,7 +13370,7 @@
         <v>854</v>
       </c>
       <c r="B856" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="C856" t="s">
         <v>3</v>
@@ -13381,10 +13381,10 @@
         <v>855</v>
       </c>
       <c r="B857" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="C857" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.3">
@@ -13392,7 +13392,7 @@
         <v>856</v>
       </c>
       <c r="B858" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="C858" t="s">
         <v>111</v>
@@ -13403,10 +13403,10 @@
         <v>857</v>
       </c>
       <c r="B859" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="C859" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.3">
@@ -13414,7 +13414,7 @@
         <v>858</v>
       </c>
       <c r="B860" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="C860" t="s">
         <v>139</v>
@@ -13425,10 +13425,10 @@
         <v>859</v>
       </c>
       <c r="B861" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="C861" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.3">
@@ -13436,7 +13436,7 @@
         <v>860</v>
       </c>
       <c r="B862" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="C862" t="s">
         <v>36</v>
@@ -13447,7 +13447,7 @@
         <v>861</v>
       </c>
       <c r="B863" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="C863" t="s">
         <v>39</v>
@@ -13458,7 +13458,7 @@
         <v>862</v>
       </c>
       <c r="B864" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="C864" t="s">
         <v>36</v>
@@ -13469,7 +13469,7 @@
         <v>863</v>
       </c>
       <c r="B865" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="C865" t="s">
         <v>111</v>
@@ -13480,7 +13480,7 @@
         <v>864</v>
       </c>
       <c r="B866" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="C866" t="s">
         <v>3</v>
@@ -13491,7 +13491,7 @@
         <v>865</v>
       </c>
       <c r="B867" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="C867" t="s">
         <v>46</v>
@@ -13502,10 +13502,10 @@
         <v>866</v>
       </c>
       <c r="B868" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="C868" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.3">
@@ -13513,10 +13513,10 @@
         <v>867</v>
       </c>
       <c r="B869" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="C869" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.3">
@@ -13524,7 +13524,7 @@
         <v>868</v>
       </c>
       <c r="B870" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C870" t="s">
         <v>36</v>
@@ -13535,7 +13535,7 @@
         <v>869</v>
       </c>
       <c r="B871" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="C871" t="s">
         <v>25</v>
@@ -13546,10 +13546,10 @@
         <v>870</v>
       </c>
       <c r="B872" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="C872" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.3">
@@ -13557,7 +13557,7 @@
         <v>871</v>
       </c>
       <c r="B873" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="C873" t="s">
         <v>8</v>
@@ -13568,7 +13568,7 @@
         <v>872</v>
       </c>
       <c r="B874" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="C874" t="s">
         <v>36</v>
@@ -13579,10 +13579,10 @@
         <v>873</v>
       </c>
       <c r="B875" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="C875" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.3">
@@ -13590,10 +13590,10 @@
         <v>874</v>
       </c>
       <c r="B876" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C876" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.3">
@@ -13601,10 +13601,10 @@
         <v>875</v>
       </c>
       <c r="B877" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="C877" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.3">
@@ -13612,10 +13612,10 @@
         <v>876</v>
       </c>
       <c r="B878" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="C878" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.3">
@@ -13623,10 +13623,10 @@
         <v>877</v>
       </c>
       <c r="B879" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="C879" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.3">
@@ -13634,10 +13634,10 @@
         <v>878</v>
       </c>
       <c r="B880" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="C880" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.3">
@@ -13645,10 +13645,10 @@
         <v>879</v>
       </c>
       <c r="B881" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="C881" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.3">
@@ -13656,10 +13656,10 @@
         <v>880</v>
       </c>
       <c r="B882" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="C882" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.3">
@@ -13667,10 +13667,10 @@
         <v>881</v>
       </c>
       <c r="B883" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="C883" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.3">
@@ -13678,10 +13678,10 @@
         <v>882</v>
       </c>
       <c r="B884" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="C884" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.3">
@@ -13689,10 +13689,10 @@
         <v>883</v>
       </c>
       <c r="B885" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="C885" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.3">
@@ -13700,10 +13700,10 @@
         <v>884</v>
       </c>
       <c r="B886" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="C886" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.3">
@@ -13711,10 +13711,10 @@
         <v>885</v>
       </c>
       <c r="B887" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C887" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.3">
@@ -13722,10 +13722,10 @@
         <v>886</v>
       </c>
       <c r="B888" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="C888" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.3">
@@ -13733,10 +13733,10 @@
         <v>887</v>
       </c>
       <c r="B889" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="C889" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.3">
@@ -13744,10 +13744,10 @@
         <v>888</v>
       </c>
       <c r="B890" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="C890" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.3">
@@ -13755,10 +13755,10 @@
         <v>889</v>
       </c>
       <c r="B891" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="C891" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.3">
@@ -13766,10 +13766,10 @@
         <v>890</v>
       </c>
       <c r="B892" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="C892" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.3">
@@ -13777,10 +13777,10 @@
         <v>891</v>
       </c>
       <c r="B893" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="C893" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.3">
@@ -13788,7 +13788,7 @@
         <v>892</v>
       </c>
       <c r="B894" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="C894" t="s">
         <v>86</v>
@@ -13799,7 +13799,7 @@
         <v>893</v>
       </c>
       <c r="B895" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="C895" t="s">
         <v>86</v>
@@ -13810,7 +13810,7 @@
         <v>894</v>
       </c>
       <c r="B896" t="s">
-        <v>958</v>
+        <v>947</v>
       </c>
       <c r="C896" t="s">
         <v>86</v>
@@ -13821,7 +13821,7 @@
         <v>895</v>
       </c>
       <c r="B897" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="C897" t="s">
         <v>86</v>
@@ -13832,7 +13832,7 @@
         <v>896</v>
       </c>
       <c r="B898" t="s">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="C898" t="s">
         <v>86</v>
@@ -13843,10 +13843,10 @@
         <v>897</v>
       </c>
       <c r="B899" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="C899" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.3">
@@ -13854,10 +13854,10 @@
         <v>898</v>
       </c>
       <c r="B900" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="C900" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.3">
@@ -13865,10 +13865,10 @@
         <v>899</v>
       </c>
       <c r="B901" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="C901" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.3">
@@ -13876,10 +13876,10 @@
         <v>900</v>
       </c>
       <c r="B902" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="C902" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.3">
@@ -13887,10 +13887,10 @@
         <v>901</v>
       </c>
       <c r="B903" t="s">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="C903" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.3">
@@ -13898,7 +13898,7 @@
         <v>902</v>
       </c>
       <c r="B904" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="C904" t="s">
         <v>86</v>
@@ -13909,10 +13909,10 @@
         <v>903</v>
       </c>
       <c r="B905" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="C905" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
@@ -13920,7 +13920,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="s">
-        <v>968</v>
+        <v>957</v>
       </c>
       <c r="C906" t="s">
         <v>139</v>
@@ -13931,7 +13931,7 @@
         <v>905</v>
       </c>
       <c r="B907" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="C907" t="s">
         <v>139</v>
@@ -13942,7 +13942,7 @@
         <v>906</v>
       </c>
       <c r="B908" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="C908" t="s">
         <v>139</v>
@@ -13953,7 +13953,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="C909" t="s">
         <v>139</v>
@@ -13964,7 +13964,7 @@
         <v>908</v>
       </c>
       <c r="B910" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="C910" t="s">
         <v>139</v>
@@ -13975,7 +13975,7 @@
         <v>909</v>
       </c>
       <c r="B911" t="s">
-        <v>973</v>
+        <v>962</v>
       </c>
       <c r="C911" t="s">
         <v>139</v>
@@ -13986,7 +13986,7 @@
         <v>910</v>
       </c>
       <c r="B912" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="C912" t="s">
         <v>139</v>
@@ -13997,7 +13997,7 @@
         <v>911</v>
       </c>
       <c r="B913" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="C913" t="s">
         <v>139</v>
@@ -14008,7 +14008,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="s">
-        <v>976</v>
+        <v>965</v>
       </c>
       <c r="C914" t="s">
         <v>139</v>
@@ -14019,10 +14019,10 @@
         <v>913</v>
       </c>
       <c r="B915" t="s">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="C915" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.3">
@@ -14030,10 +14030,10 @@
         <v>914</v>
       </c>
       <c r="B916" t="s">
-        <v>978</v>
+        <v>967</v>
       </c>
       <c r="C916" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.3">
@@ -14041,10 +14041,10 @@
         <v>915</v>
       </c>
       <c r="B917" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="C917" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.3">
@@ -14052,10 +14052,10 @@
         <v>916</v>
       </c>
       <c r="B918" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="C918" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.3">
@@ -14063,7 +14063,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="C919" t="s">
         <v>74</v>
@@ -14074,7 +14074,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="C920" t="s">
         <v>53</v>
@@ -14085,7 +14085,7 @@
         <v>919</v>
       </c>
       <c r="B921" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="C921" t="s">
         <v>53</v>
@@ -14096,7 +14096,7 @@
         <v>920</v>
       </c>
       <c r="B922" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="C922" t="s">
         <v>53</v>
@@ -14107,7 +14107,7 @@
         <v>921</v>
       </c>
       <c r="B923" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="C923" t="s">
         <v>53</v>
@@ -14118,7 +14118,7 @@
         <v>922</v>
       </c>
       <c r="B924" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="C924" t="s">
         <v>53</v>
@@ -14129,7 +14129,7 @@
         <v>923</v>
       </c>
       <c r="B925" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="C925" t="s">
         <v>53</v>
@@ -14140,10 +14140,10 @@
         <v>924</v>
       </c>
       <c r="B926" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="C926" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.3">
@@ -14151,7 +14151,7 @@
         <v>925</v>
       </c>
       <c r="B927" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="C927" t="s">
         <v>53</v>
@@ -14162,7 +14162,7 @@
         <v>926</v>
       </c>
       <c r="B928" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="C928" t="s">
         <v>53</v>
@@ -14173,7 +14173,7 @@
         <v>927</v>
       </c>
       <c r="B929" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="C929" t="s">
         <v>3</v>
@@ -14184,10 +14184,10 @@
         <v>928</v>
       </c>
       <c r="B930" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="C930" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
@@ -14195,10 +14195,10 @@
         <v>929</v>
       </c>
       <c r="B931" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="C931" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
@@ -14206,10 +14206,10 @@
         <v>930</v>
       </c>
       <c r="B932" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="C932" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.3">
@@ -14217,10 +14217,10 @@
         <v>931</v>
       </c>
       <c r="B933" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="C933" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.3">
@@ -14228,7 +14228,7 @@
         <v>932</v>
       </c>
       <c r="B934" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="C934" t="s">
         <v>8</v>
@@ -14239,7 +14239,7 @@
         <v>933</v>
       </c>
       <c r="B935" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="C935" t="s">
         <v>8</v>
@@ -14250,10 +14250,10 @@
         <v>934</v>
       </c>
       <c r="B936" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="C936" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
@@ -14261,10 +14261,10 @@
         <v>935</v>
       </c>
       <c r="B937" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="C937" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.3">
@@ -14272,7 +14272,7 @@
         <v>936</v>
       </c>
       <c r="B938" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="C938" t="s">
         <v>8</v>
@@ -14283,10 +14283,10 @@
         <v>937</v>
       </c>
       <c r="B939" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="C939" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.3">
@@ -14294,10 +14294,10 @@
         <v>938</v>
       </c>
       <c r="B940" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="C940" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.3">
@@ -14305,10 +14305,10 @@
         <v>939</v>
       </c>
       <c r="B941" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="C941" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.3">
@@ -14316,7 +14316,7 @@
         <v>940</v>
       </c>
       <c r="B942" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="C942" t="s">
         <v>3</v>
@@ -14327,7 +14327,7 @@
         <v>941</v>
       </c>
       <c r="B943" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="C943" t="s">
         <v>3</v>
@@ -14338,10 +14338,10 @@
         <v>942</v>
       </c>
       <c r="B944" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="C944" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.3">
@@ -14349,10 +14349,10 @@
         <v>943</v>
       </c>
       <c r="B945" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="C945" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.3">
@@ -14360,7 +14360,7 @@
         <v>944</v>
       </c>
       <c r="B946" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="C946" t="s">
         <v>25</v>
@@ -14371,10 +14371,10 @@
         <v>945</v>
       </c>
       <c r="B947" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="C947" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.3">
@@ -14382,7 +14382,7 @@
         <v>946</v>
       </c>
       <c r="B948" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="C948" t="s">
         <v>3</v>
@@ -14393,7 +14393,7 @@
         <v>947</v>
       </c>
       <c r="B949" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="C949" t="s">
         <v>3</v>
@@ -14404,10 +14404,10 @@
         <v>948</v>
       </c>
       <c r="B950" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="C950" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.3">
@@ -14415,7 +14415,7 @@
         <v>949</v>
       </c>
       <c r="B951" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="C951" t="s">
         <v>3</v>
@@ -14426,7 +14426,7 @@
         <v>950</v>
       </c>
       <c r="B952" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="C952" t="s">
         <v>25</v>
@@ -14437,10 +14437,10 @@
         <v>951</v>
       </c>
       <c r="B953" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="C953" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.3">
@@ -14448,10 +14448,10 @@
         <v>952</v>
       </c>
       <c r="B954" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="C954" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.3">
@@ -14459,7 +14459,7 @@
         <v>953</v>
       </c>
       <c r="B955" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="C955" t="s">
         <v>53</v>
@@ -14470,7 +14470,7 @@
         <v>954</v>
       </c>
       <c r="B956" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="C956" t="s">
         <v>3</v>
@@ -14481,10 +14481,10 @@
         <v>955</v>
       </c>
       <c r="B957" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="C957" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.3">
@@ -14492,7 +14492,7 @@
         <v>956</v>
       </c>
       <c r="B958" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="C958" t="s">
         <v>111</v>
@@ -14503,10 +14503,10 @@
         <v>957</v>
       </c>
       <c r="B959" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="C959" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.3">
@@ -14514,10 +14514,10 @@
         <v>958</v>
       </c>
       <c r="B960" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="C960" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.3">
@@ -14525,10 +14525,10 @@
         <v>959</v>
       </c>
       <c r="B961" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="C961" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
